--- a/data/register.xlsx
+++ b/data/register.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EclipseWorkspace\Framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UpskillWorkspace\Framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testexcel" sheetId="1" r:id="rId1"/>
+    <sheet name="custName" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -41,16 +42,22 @@
     <t>TestCaseID</t>
   </si>
   <si>
-    <t>athul</t>
-  </si>
-  <si>
-    <t>samepassword</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
     <t>TC002</t>
+  </si>
+  <si>
+    <t>invmsg</t>
+  </si>
+  <si>
+    <t>Bad credentials</t>
+  </si>
+  <si>
+    <t>dashboard</t>
+  </si>
+  <si>
+    <t>Hello Customer!!!</t>
   </si>
 </sst>
 </file>
@@ -391,19 +398,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -413,10 +421,13 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -424,16 +435,44 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/register.xlsx
+++ b/data/register.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="testexcel" sheetId="1" r:id="rId1"/>
-    <sheet name="custName" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyheader" sheetId="3" r:id="rId2"/>
+    <sheet name="custName" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -58,16 +59,32 @@
   </si>
   <si>
     <t>Hello Customer!!!</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>Please sign in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,10 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +419,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +468,42 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/register.xlsx
+++ b/data/register.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testexcel" sheetId="1" r:id="rId1"/>
@@ -43,12 +43,6 @@
     <t>TestCaseID</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
     <t>invmsg</t>
   </si>
   <si>
@@ -61,13 +55,19 @@
     <t>Hello Customer!!!</t>
   </si>
   <si>
-    <t>TC003</t>
-  </si>
-  <si>
     <t>header</t>
   </si>
   <si>
     <t>Please sign in</t>
+  </si>
+  <si>
+    <t>TC004_Login_VerifyHeader</t>
+  </si>
+  <si>
+    <t>TC002_Login_InvalidCredentials</t>
+  </si>
+  <si>
+    <t>TC003_Login_VerifyCustomername</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,12 +440,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -467,12 +467,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -481,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -502,13 +503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,15 +518,15 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
